--- a/dataset/day_14.xlsx
+++ b/dataset/day_14.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
